--- a/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
+++ b/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/StockMarket/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828F5816-BF6A-8549-9367-935DF003C853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC5BE96-2AD3-6444-9E7E-12B0E7C3B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1840" windowWidth="23400" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
+++ b/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/StockMarket/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC5BE96-2AD3-6444-9E7E-12B0E7C3B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF478CDC-5FE9-6B4F-B120-333CBED1B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1840" windowWidth="23400" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="760" windowWidth="23400" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -49,9 +49,6 @@
     <t>period_ticks</t>
   </si>
   <si>
-    <t>chartist_percentage</t>
-  </si>
-  <si>
     <t>chartist_memory_length</t>
   </si>
   <si>
@@ -61,7 +58,22 @@
     <t>switch_intensity</t>
   </si>
   <si>
-    <t>stock_start_price</t>
+    <t>stock_price_start</t>
+  </si>
+  <si>
+    <t>chartist_percentage_start</t>
+  </si>
+  <si>
+    <t>forecast_rule_evaluation_memory</t>
+  </si>
+  <si>
+    <t>stock_trading_volume</t>
+  </si>
+  <si>
+    <t>stock_account_start</t>
+  </si>
+  <si>
+    <t>cash_account_start</t>
   </si>
 </sst>
 </file>
@@ -382,26 +394,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,23 +434,35 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -456,13 +485,25 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>120</v>
-      </c>
-      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
         <v>0.5</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>100</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
+++ b/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/StockMarket/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF478CDC-5FE9-6B4F-B120-333CBED1B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E391FDC4-4755-1A4D-8CD3-80CDE4D56D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="760" windowWidth="23400" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>chartist_percentage_start</t>
   </si>
   <si>
-    <t>forecast_rule_evaluation_memory</t>
-  </si>
-  <si>
     <t>stock_trading_volume</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>cash_account_start</t>
+  </si>
+  <si>
+    <t>forecast_rule_evaluation_memory_length</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -453,13 +453,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">

--- a/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
+++ b/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/StockMarket/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E391FDC4-4755-1A4D-8CD3-80CDE4D56D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75ABBAB-A022-CF45-8AB1-D2ED9F13450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="760" windowWidth="23400" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="760" windowWidth="26880" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -49,21 +49,9 @@
     <t>period_ticks</t>
   </si>
   <si>
-    <t>chartist_memory_length</t>
-  </si>
-  <si>
-    <t>fundamentalist_price_benchmark</t>
-  </si>
-  <si>
-    <t>switch_intensity</t>
-  </si>
-  <si>
     <t>stock_price_start</t>
   </si>
   <si>
-    <t>chartist_percentage_start</t>
-  </si>
-  <si>
     <t>stock_trading_volume</t>
   </si>
   <si>
@@ -73,14 +61,32 @@
     <t>cash_account_start</t>
   </si>
   <si>
-    <t>forecast_rule_evaluation_memory_length</t>
+    <t>chartist_forecast_start_min</t>
+  </si>
+  <si>
+    <t>chartist_forecast_start_max</t>
+  </si>
+  <si>
+    <t>fundamentalist_forecast_min</t>
+  </si>
+  <si>
+    <t>fundamentalist_forecast_max</t>
+  </si>
+  <si>
+    <t>chartist_forecast_memory_length</t>
+  </si>
+  <si>
+    <t>fundamentalist_weight_min</t>
+  </si>
+  <si>
+    <t>fundamentalist_weight_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +100,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val=".AppleSystemUIFont"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,9 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,31 +407,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,34 +447,40 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -479,32 +497,44 @@
         <v>1000</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.5</v>
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
         <v>10000</v>
       </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
+++ b/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/StockMarket/data/input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75ABBAB-A022-CF45-8AB1-D2ED9F13450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="760" windowWidth="26880" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -37,16 +19,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>number_of_run</t>
-  </si>
-  <si>
-    <t>periods</t>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>period_num</t>
+  </si>
+  <si>
+    <t>period_ticks</t>
   </si>
   <si>
     <t>agent_num</t>
   </si>
   <si>
-    <t>period_ticks</t>
+    <t>fundamentalist_weight_min</t>
+  </si>
+  <si>
+    <t>fundamentalist_weight_max</t>
+  </si>
+  <si>
+    <t>fundamentalist_forecast_min</t>
+  </si>
+  <si>
+    <t>fundamentalist_forecast_max</t>
+  </si>
+  <si>
+    <t>chartist_forecast_start_min</t>
+  </si>
+  <si>
+    <t>chartist_forecast_start_max</t>
+  </si>
+  <si>
+    <t>chartist_forecast_memory_length</t>
   </si>
   <si>
     <t>stock_price_start</t>
@@ -59,63 +62,379 @@
   </si>
   <si>
     <t>cash_account_start</t>
-  </si>
-  <si>
-    <t>chartist_forecast_start_min</t>
-  </si>
-  <si>
-    <t>chartist_forecast_start_max</t>
-  </si>
-  <si>
-    <t>fundamentalist_forecast_min</t>
-  </si>
-  <si>
-    <t>fundamentalist_forecast_max</t>
-  </si>
-  <si>
-    <t>chartist_forecast_memory_length</t>
-  </si>
-  <si>
-    <t>fundamentalist_weight_min</t>
-  </si>
-  <si>
-    <t>fundamentalist_weight_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val=".AppleSystemUIFont"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -123,9 +442,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -133,17 +694,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,33 +1006,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="20.83203125" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.66071428571429" customWidth="1"/>
+    <col min="2" max="2" width="14.1607142857143" customWidth="1"/>
+    <col min="3" max="3" width="7.16071428571429" customWidth="1"/>
+    <col min="4" max="4" width="11.3303571428571" customWidth="1"/>
+    <col min="5" max="5" width="9.66071428571429" customWidth="1"/>
+    <col min="6" max="6" width="22.8303571428571" customWidth="1"/>
+    <col min="7" max="7" width="23.1607142857143" customWidth="1"/>
+    <col min="8" max="11" width="20.8303571428571" customWidth="1"/>
+    <col min="12" max="12" width="27.1607142857143" customWidth="1"/>
+    <col min="13" max="13" width="14.1607142857143" customWidth="1"/>
+    <col min="14" max="14" width="18.1607142857143" customWidth="1"/>
+    <col min="15" max="15" width="16.6607142857143" customWidth="1"/>
+    <col min="16" max="16" width="15.8303571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -441,22 +1046,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -465,19 +1070,19 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -530,7 +1135,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" ht="15.2" spans="6:9">
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -539,5 +1144,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
+++ b/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
@@ -70,18 +70,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +90,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,36 +98,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +119,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -163,82 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,25 +242,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,157 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,35 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,6 +476,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -525,174 +533,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,14 +1008,14 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="2.66071428571429" customWidth="1"/>
     <col min="2" max="2" width="14.1607142857143" customWidth="1"/>
-    <col min="3" max="3" width="7.16071428571429" customWidth="1"/>
+    <col min="3" max="3" width="16.2767857142857" customWidth="1"/>
     <col min="4" max="4" width="11.3303571428571" customWidth="1"/>
     <col min="5" max="5" width="9.66071428571429" customWidth="1"/>
     <col min="6" max="6" width="22.8303571428571" customWidth="1"/>
@@ -1093,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
         <v>100</v>
-      </c>
-      <c r="D2">
-        <v>3000</v>
       </c>
       <c r="E2">
         <v>1000</v>

--- a/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
+++ b/tutorial/StockMarket/data/input/simulator_scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13000"/>
+    <workbookView windowWidth="30240" windowHeight="12940"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,14 +90,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,17 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,89 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,11 +219,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,35 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -536,148 +536,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,8 +1007,8 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
@@ -1092,13 +1092,13 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>80</v>
